--- a/data/trans_orig/P70A01_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BD6E6F9-341B-49E1-88AE-91F3711E3F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C0EC00-65D1-424F-BB8D-6F7013E4327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15A4964B-8C34-4FA3-A94E-46241347A50F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB7B3E2C-353A-40C6-BFE7-7D99CE56F6C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>57,34%</t>
   </si>
   <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>47,44%</t>
   </si>
   <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>42,66%</t>
   </si>
   <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>67,0%</t>
   </si>
   <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>52,56%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>82,3%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>68,69%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>77,82%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>82,07%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>53,65%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
   </si>
   <si>
     <t>46,35%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>63,08%</t>
   </si>
   <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
   </si>
   <si>
     <t>36,92%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>90,17%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>59,62%</t>
   </si>
   <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>80,8%</t>
   </si>
   <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
   <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>76,35%</t>
   </si>
   <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,55 @@
     <t>80,48%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>69,61%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +479,109 @@
     <t>87,07%</t>
   </si>
   <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>65,58%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>80,01%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>34,42%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>19,99%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40249009-374D-4874-9084-D0C7DBB83077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A98505-3B76-42F2-8650-FCFB7BF783D5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A01_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C0EC00-65D1-424F-BB8D-6F7013E4327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC46EC1-3E9E-4041-96C2-40B964B63350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB7B3E2C-353A-40C6-BFE7-7D99CE56F6C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0314B044-5C1F-46BD-8F5C-778083B5A03D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si le han informado sobre los riesgos laborales de su trabajo en su empresa en 2007 (Tasa respuesta: 39,63%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>57,34%</t>
   </si>
   <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
   <si>
     <t>47,44%</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>42,66%</t>
   </si>
   <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>67,0%</t>
   </si>
   <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
   </si>
   <si>
     <t>52,56%</t>
   </si>
   <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>82,3%</t>
   </si>
   <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>68,69%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
   </si>
   <si>
     <t>77,82%</t>
@@ -158,31 +158,31 @@
     <t>73,21%</t>
   </si>
   <si>
-    <t>81,66%</t>
+    <t>81,72%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>18,34%</t>
+    <t>18,28%</t>
   </si>
   <si>
     <t>26,79%</t>
@@ -194,55 +194,55 @@
     <t>82,07%</t>
   </si>
   <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>53,65%</t>
   </si>
   <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>46,35%</t>
   </si>
   <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>63,08%</t>
   </si>
   <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
   </si>
   <si>
     <t>36,92%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>90,17%</t>
   </si>
   <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>59,62%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>80,8%</t>
   </si>
   <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
   </si>
   <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>76,35%</t>
   </si>
   <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,55 @@
     <t>80,48%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>69,61%</t>
   </si>
   <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +479,103 @@
     <t>87,07%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>65,58%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>80,01%</t>
   </si>
   <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>34,42%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
   </si>
   <si>
     <t>19,99%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>76,87%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>23,13%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A98505-3B76-42F2-8650-FCFB7BF783D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BD6E89-70FC-4FB4-91FF-31139892DE5B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2366,7 +2360,7 @@
         <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>542</v>
@@ -2375,13 +2369,13 @@
         <v>557390</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1872</v>
@@ -2390,13 +2384,13 @@
         <v>1945922</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>370500</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>354</v>
@@ -2426,13 +2420,13 @@
         <v>378558</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>708</v>
@@ -2441,13 +2435,13 @@
         <v>749057</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A01_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC46EC1-3E9E-4041-96C2-40B964B63350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64F52E5F-5E2C-419D-9E83-D767A18F3D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0314B044-5C1F-46BD-8F5C-778083B5A03D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE8295B2-9796-4700-8774-68162377B2B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población según si le han informado sobre los riesgos laborales de su trabajo en su empresa en 2007 (Tasa respuesta: 39,63%)</t>
   </si>
@@ -68,34 +68,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
   </si>
   <si>
     <t>47,44%</t>
   </si>
   <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>42,66%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
   </si>
   <si>
     <t>67,0%</t>
   </si>
   <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>52,56%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>82,3%</t>
   </si>
   <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>68,69%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>77,82%</t>
   </si>
   <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>82,07%</t>
   </si>
   <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>53,65%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>46,35%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>63,08%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
   </si>
   <si>
     <t>36,92%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>90,17%</t>
   </si>
   <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>59,62%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
   </si>
   <si>
     <t>80,8%</t>
   </si>
   <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>76,35%</t>
   </si>
   <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,55 @@
     <t>80,48%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>69,61%</t>
   </si>
   <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,103 +479,109 @@
     <t>87,07%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>65,58%</t>
   </si>
   <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>80,01%</t>
   </si>
   <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>34,42%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
   </si>
   <si>
     <t>19,99%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>76,87%</t>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>23,13%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BD6E89-70FC-4FB4-91FF-31139892DE5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FE2ACD-3A20-41B4-980A-2E208D15DCEE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2360,7 +2366,7 @@
         <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>542</v>
@@ -2369,13 +2375,13 @@
         <v>557390</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1872</v>
@@ -2384,13 +2390,13 @@
         <v>1945922</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>370500</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>354</v>
@@ -2420,13 +2426,13 @@
         <v>378558</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>708</v>
@@ -2435,13 +2441,13 @@
         <v>749057</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A01_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64F52E5F-5E2C-419D-9E83-D767A18F3D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40040A9F-99D4-45D8-B2E0-67C5236B0E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE8295B2-9796-4700-8774-68162377B2B4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{74209C8D-25AC-46EF-B023-323C7C6B814A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FE2ACD-3A20-41B4-980A-2E208D15DCEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4F10A3-2EDA-4096-9DFA-1083924F3144}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1582,7 +1582,7 @@
         <v>123</v>
       </c>
       <c r="D13" s="7">
-        <v>125574</v>
+        <v>125573</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1684,7 +1684,7 @@
         <v>194</v>
       </c>
       <c r="D15" s="7">
-        <v>199078</v>
+        <v>199077</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
